--- a/Jogos_do_Dia/2023-06-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>League</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
     <t>Colombia Categoria Primera A</t>
   </si>
   <si>
@@ -148,15 +145,9 @@
     <t>14:00:00</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
     <t>17:00:00</t>
   </si>
   <si>
-    <t>18:00:00</t>
-  </si>
-  <si>
     <t>19:00:00</t>
   </si>
   <si>
@@ -172,70 +163,88 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>21:45:00</t>
+  </si>
+  <si>
     <t>Bella Vista</t>
   </si>
   <si>
     <t>Newell's Old Boys</t>
   </si>
   <si>
-    <t>Danubio</t>
-  </si>
-  <si>
     <t>San Lorenzo</t>
   </si>
   <si>
-    <t>Cerro Largo</t>
-  </si>
-  <si>
     <t>Independiente Medellín</t>
   </si>
   <si>
     <t>Banfield</t>
   </si>
   <si>
+    <t>Paysandu</t>
+  </si>
+  <si>
     <t>Figueirense</t>
   </si>
   <si>
-    <t>Paysandu</t>
-  </si>
-  <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
     <t>CS Emelec</t>
   </si>
   <si>
+    <t>Confiança</t>
+  </si>
+  <si>
+    <t>Alianza Petrolera</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Instituto</t>
+  </si>
+  <si>
     <t>Rentistas</t>
   </si>
   <si>
     <t>Unión Santa Fe</t>
   </si>
   <si>
-    <t>Torque</t>
-  </si>
-  <si>
     <t>Central Córdoba SdE</t>
   </si>
   <si>
-    <t>Liverpool FC Montevideo</t>
-  </si>
-  <si>
     <t>América de Cali</t>
   </si>
   <si>
     <t>River Plate</t>
   </si>
   <si>
+    <t>São Bernardo</t>
+  </si>
+  <si>
     <t>Pouso Alegre</t>
   </si>
   <si>
-    <t>São Bernardo</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
     <t>Gualaceo SC</t>
+  </si>
+  <si>
+    <t>Náutico</t>
+  </si>
+  <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
+    <t>Argentinos Juniors</t>
+  </si>
+  <si>
+    <t>Racing Club</t>
   </si>
 </sst>
 </file>
@@ -597,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,25 +727,25 @@
         <v>45089</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -751,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -825,16 +834,16 @@
         <v>45089</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>1.91</v>
@@ -926,323 +935,323 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45089</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="H4">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
-        <v>4.47</v>
+        <v>4.75</v>
       </c>
       <c r="J4">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K4">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="L4">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="O4">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="P4">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="Q4">
-        <v>2.75</v>
+        <v>2.28</v>
       </c>
       <c r="R4">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="S4">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="T4">
+        <v>1.18</v>
+      </c>
+      <c r="U4">
+        <v>1.34</v>
+      </c>
+      <c r="V4">
+        <v>2.05</v>
+      </c>
+      <c r="W4">
+        <v>2.4</v>
+      </c>
+      <c r="X4">
+        <v>1.11</v>
+      </c>
+      <c r="Y4">
+        <v>1.41</v>
+      </c>
+      <c r="Z4">
         <v>1.21</v>
       </c>
-      <c r="U4">
+      <c r="AA4">
+        <v>2.62</v>
+      </c>
+      <c r="AB4">
+        <v>1.23</v>
+      </c>
+      <c r="AC4">
+        <v>7</v>
+      </c>
+      <c r="AD4">
+        <v>4.9</v>
+      </c>
+      <c r="AE4">
         <v>1.26</v>
       </c>
-      <c r="V4">
-        <v>1.86</v>
-      </c>
-      <c r="W4">
-        <v>1.71</v>
-      </c>
-      <c r="X4">
-        <v>1.57</v>
-      </c>
-      <c r="Y4">
-        <v>1.26</v>
-      </c>
-      <c r="Z4">
-        <v>0.68</v>
-      </c>
-      <c r="AA4">
-        <v>1.94</v>
-      </c>
-      <c r="AB4">
-        <v>1.45</v>
-      </c>
-      <c r="AC4">
-        <v>9</v>
-      </c>
-      <c r="AD4">
-        <v>3.4</v>
-      </c>
-      <c r="AE4">
-        <v>1.24</v>
-      </c>
       <c r="AF4">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AG4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AH4">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="AI4">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>45089</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I5">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="K5">
-        <v>5.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L5">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="M5">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>2.63</v>
+        <v>1.9</v>
       </c>
       <c r="O5">
-        <v>1.43</v>
+        <v>1.9</v>
       </c>
       <c r="P5">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="Q5">
-        <v>2.28</v>
+        <v>2.91</v>
       </c>
       <c r="R5">
-        <v>2.4</v>
+        <v>1.74</v>
       </c>
       <c r="S5">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="T5">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="U5">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="W5">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="X5">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="Z5">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AA5">
-        <v>2.62</v>
+        <v>3.04</v>
       </c>
       <c r="AB5">
-        <v>1.23</v>
+        <v>1.82</v>
       </c>
       <c r="AC5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD5">
-        <v>4.9</v>
+        <v>2.39</v>
       </c>
       <c r="AE5">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AF5">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AG5">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="AH5">
-        <v>2.34</v>
+        <v>2.49</v>
       </c>
       <c r="AI5">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>45089</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>4.2</v>
+      </c>
+      <c r="H6">
+        <v>3.5</v>
+      </c>
+      <c r="I6">
+        <v>1.7</v>
+      </c>
+      <c r="J6">
+        <v>1.05</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>1.33</v>
+      </c>
+      <c r="M6">
+        <v>3.35</v>
+      </c>
+      <c r="N6">
+        <v>2.1</v>
+      </c>
+      <c r="O6">
+        <v>1.7</v>
+      </c>
+      <c r="P6">
+        <v>1.44</v>
+      </c>
+      <c r="Q6">
+        <v>2.63</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6">
-        <v>2.76</v>
-      </c>
-      <c r="H6">
-        <v>2.76</v>
-      </c>
-      <c r="I6">
-        <v>2.15</v>
-      </c>
-      <c r="J6">
-        <v>1.06</v>
-      </c>
-      <c r="K6">
-        <v>8</v>
-      </c>
-      <c r="L6">
+      <c r="S6">
+        <v>1.75</v>
+      </c>
+      <c r="T6">
+        <v>2.06</v>
+      </c>
+      <c r="U6">
         <v>1.3</v>
       </c>
-      <c r="M6">
-        <v>3.4</v>
-      </c>
-      <c r="N6">
-        <v>1.85</v>
-      </c>
-      <c r="O6">
-        <v>1.86</v>
-      </c>
-      <c r="P6">
+      <c r="V6">
+        <v>1.21</v>
+      </c>
+      <c r="W6">
+        <v>1.3</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>1.55</v>
+      </c>
+      <c r="Z6">
+        <v>1.75</v>
+      </c>
+      <c r="AA6">
+        <v>3.3</v>
+      </c>
+      <c r="AB6">
+        <v>2.75</v>
+      </c>
+      <c r="AC6">
+        <v>7</v>
+      </c>
+      <c r="AD6">
+        <v>1.68</v>
+      </c>
+      <c r="AE6">
         <v>1.36</v>
       </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <v>1.75</v>
-      </c>
-      <c r="S6">
-        <v>2.03</v>
-      </c>
-      <c r="T6">
-        <v>1.63</v>
-      </c>
-      <c r="U6">
-        <v>1.28</v>
-      </c>
-      <c r="V6">
-        <v>1.32</v>
-      </c>
-      <c r="W6">
-        <v>1.88</v>
-      </c>
-      <c r="X6">
-        <v>0.88</v>
-      </c>
-      <c r="Y6">
-        <v>1.76</v>
-      </c>
-      <c r="Z6">
-        <v>1.35</v>
-      </c>
-      <c r="AA6">
-        <v>3.11</v>
-      </c>
-      <c r="AB6">
-        <v>2.2</v>
-      </c>
-      <c r="AC6">
-        <v>8</v>
-      </c>
-      <c r="AD6">
-        <v>1.91</v>
-      </c>
-      <c r="AE6">
-        <v>1.22</v>
-      </c>
       <c r="AF6">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="AG6">
-        <v>1.75</v>
+        <v>2.12</v>
       </c>
       <c r="AH6">
-        <v>2.15</v>
+        <v>2.88</v>
       </c>
       <c r="AI6">
-        <v>3</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1253,210 +1262,210 @@
         <v>45089</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="H7">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J7">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="K7">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="L7">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="M7">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N7">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="O7">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="P7">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="Q7">
-        <v>2.91</v>
+        <v>2.4</v>
       </c>
       <c r="R7">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="T7">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="U7">
         <v>1.3</v>
       </c>
       <c r="V7">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="W7">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y7">
+        <v>1.18</v>
+      </c>
+      <c r="Z7">
         <v>1.78</v>
       </c>
-      <c r="Z7">
-        <v>1.26</v>
-      </c>
       <c r="AA7">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="AB7">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>3.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>45089</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8">
-        <v>4.2</v>
+        <v>1.73</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I8">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L8">
+        <v>1.4</v>
+      </c>
+      <c r="M8">
+        <v>2.75</v>
+      </c>
+      <c r="N8">
+        <v>2.2</v>
+      </c>
+      <c r="O8">
+        <v>1.53</v>
+      </c>
+      <c r="P8">
+        <v>1.5</v>
+      </c>
+      <c r="Q8">
+        <v>2.4</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>1.68</v>
+      </c>
+      <c r="T8">
+        <v>1.14</v>
+      </c>
+      <c r="U8">
+        <v>1.25</v>
+      </c>
+      <c r="V8">
+        <v>1.87</v>
+      </c>
+      <c r="W8">
+        <v>2.25</v>
+      </c>
+      <c r="X8">
         <v>1.33</v>
       </c>
-      <c r="M8">
-        <v>3.35</v>
-      </c>
-      <c r="N8">
-        <v>2.1</v>
-      </c>
-      <c r="O8">
-        <v>1.7</v>
-      </c>
-      <c r="P8">
-        <v>1.44</v>
-      </c>
-      <c r="Q8">
-        <v>2.63</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>1.75</v>
-      </c>
-      <c r="T8">
-        <v>2.06</v>
-      </c>
-      <c r="U8">
-        <v>1.3</v>
-      </c>
-      <c r="V8">
-        <v>1.21</v>
-      </c>
-      <c r="W8">
-        <v>1.3</v>
-      </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
       <c r="Y8">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Z8">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="AA8">
-        <v>3.3</v>
+        <v>2.67</v>
       </c>
       <c r="AB8">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="AI8">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1467,79 +1476,79 @@
         <v>45089</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G9">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H9">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I9">
-        <v>4.5</v>
+        <v>2.95</v>
       </c>
       <c r="J9">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K9">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L9">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M9">
         <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="O9">
         <v>1.6</v>
       </c>
       <c r="P9">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="Q9">
-        <v>2.4</v>
+        <v>2.53</v>
       </c>
       <c r="R9">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S9">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="T9">
-        <v>1.14</v>
+        <v>1.34</v>
       </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="V9">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="W9">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="Y9">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="Z9">
-        <v>1.22</v>
+        <v>1.08</v>
       </c>
       <c r="AA9">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1568,192 +1577,192 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>45089</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="H10">
+        <v>4.5</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>1.04</v>
+      </c>
+      <c r="K10">
+        <v>10.5</v>
+      </c>
+      <c r="L10">
+        <v>1.22</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>1.73</v>
+      </c>
+      <c r="O10">
+        <v>1.91</v>
+      </c>
+      <c r="P10">
+        <v>1.33</v>
+      </c>
+      <c r="Q10">
         <v>3</v>
       </c>
-      <c r="I10">
-        <v>3.25</v>
-      </c>
-      <c r="J10">
-        <v>1.08</v>
-      </c>
-      <c r="K10">
-        <v>7</v>
-      </c>
-      <c r="L10">
-        <v>1.4</v>
-      </c>
-      <c r="M10">
-        <v>2.75</v>
-      </c>
-      <c r="N10">
-        <v>2.25</v>
-      </c>
-      <c r="O10">
-        <v>1.57</v>
-      </c>
-      <c r="P10">
-        <v>1.51</v>
-      </c>
-      <c r="Q10">
-        <v>2.4</v>
-      </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S10">
         <v>1.78</v>
       </c>
       <c r="T10">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="U10">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="V10">
-        <v>1.55</v>
+        <v>2.91</v>
       </c>
       <c r="W10">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="X10">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="Y10">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="Z10">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="AA10">
-        <v>2.96</v>
+        <v>2.61</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2">
         <v>45089</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
+        <v>2.25</v>
+      </c>
+      <c r="H11">
+        <v>2.9</v>
+      </c>
+      <c r="I11">
+        <v>3.2</v>
+      </c>
+      <c r="J11">
+        <v>1.08</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>1.4</v>
+      </c>
+      <c r="M11">
+        <v>2.75</v>
+      </c>
+      <c r="N11">
+        <v>2.16</v>
+      </c>
+      <c r="O11">
+        <v>1.55</v>
+      </c>
+      <c r="P11">
+        <v>1.51</v>
+      </c>
+      <c r="Q11">
+        <v>2.4</v>
+      </c>
+      <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.25</v>
+      </c>
+      <c r="U11">
+        <v>1.3</v>
+      </c>
+      <c r="V11">
+        <v>1.53</v>
+      </c>
+      <c r="W11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11">
-        <v>2.35</v>
-      </c>
-      <c r="H11">
-        <v>2.55</v>
-      </c>
-      <c r="I11">
-        <v>3.7</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
+      <c r="X11">
         <v>1</v>
       </c>
-      <c r="X11">
-        <v>0.8</v>
-      </c>
       <c r="Y11">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="Z11">
-        <v>1.08</v>
+        <v>1.58</v>
       </c>
       <c r="AA11">
-        <v>2.75</v>
+        <v>3.01</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1782,108 +1791,322 @@
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2">
         <v>45089</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12">
-        <v>1.46</v>
+        <v>2.59</v>
       </c>
       <c r="H12">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>5.6</v>
+        <v>2.48</v>
       </c>
       <c r="J12">
         <v>1.04</v>
       </c>
       <c r="K12">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="L12">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O12">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P12">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Q12">
+        <v>2.75</v>
+      </c>
+      <c r="R12">
+        <v>1.73</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>1.52</v>
+      </c>
+      <c r="U12">
+        <v>1.25</v>
+      </c>
+      <c r="V12">
+        <v>1.5</v>
+      </c>
+      <c r="W12">
+        <v>2.5</v>
+      </c>
+      <c r="X12">
+        <v>1.67</v>
+      </c>
+      <c r="Y12">
+        <v>1.73</v>
+      </c>
+      <c r="Z12">
+        <v>1.46</v>
+      </c>
+      <c r="AA12">
+        <v>3.19</v>
+      </c>
+      <c r="AB12">
+        <v>2.05</v>
+      </c>
+      <c r="AC12">
+        <v>8</v>
+      </c>
+      <c r="AD12">
+        <v>2</v>
+      </c>
+      <c r="AE12">
+        <v>1.21</v>
+      </c>
+      <c r="AF12">
+        <v>1.47</v>
+      </c>
+      <c r="AG12">
+        <v>1.93</v>
+      </c>
+      <c r="AH12">
+        <v>2.19</v>
+      </c>
+      <c r="AI12">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45089</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13">
+        <v>2.9</v>
+      </c>
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="R12">
+      <c r="I13">
+        <v>2.5</v>
+      </c>
+      <c r="J13">
+        <v>1.11</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>1.51</v>
+      </c>
+      <c r="M13">
+        <v>2.37</v>
+      </c>
+      <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>1.46</v>
+      </c>
+      <c r="P13">
+        <v>1.55</v>
+      </c>
+      <c r="Q13">
+        <v>2.25</v>
+      </c>
+      <c r="R13">
+        <v>2.15</v>
+      </c>
+      <c r="S13">
+        <v>1.62</v>
+      </c>
+      <c r="T13">
+        <v>1.49</v>
+      </c>
+      <c r="U13">
+        <v>1.37</v>
+      </c>
+      <c r="V13">
+        <v>1.39</v>
+      </c>
+      <c r="W13">
+        <v>1.3</v>
+      </c>
+      <c r="X13">
+        <v>0.9</v>
+      </c>
+      <c r="Y13">
+        <v>1.32</v>
+      </c>
+      <c r="Z13">
+        <v>1.58</v>
+      </c>
+      <c r="AA13">
+        <v>2.9</v>
+      </c>
+      <c r="AB13">
+        <v>2.25</v>
+      </c>
+      <c r="AC13">
+        <v>8.5</v>
+      </c>
+      <c r="AD13">
+        <v>1.88</v>
+      </c>
+      <c r="AE13">
+        <v>1.32</v>
+      </c>
+      <c r="AF13">
+        <v>1.68</v>
+      </c>
+      <c r="AG13">
+        <v>2.08</v>
+      </c>
+      <c r="AH13">
+        <v>2.72</v>
+      </c>
+      <c r="AI13">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45089</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14">
+        <v>2.45</v>
+      </c>
+      <c r="H14">
+        <v>3.25</v>
+      </c>
+      <c r="I14">
+        <v>2.75</v>
+      </c>
+      <c r="J14">
+        <v>1.08</v>
+      </c>
+      <c r="K14">
+        <v>7.5</v>
+      </c>
+      <c r="L14">
+        <v>1.41</v>
+      </c>
+      <c r="M14">
+        <v>2.65</v>
+      </c>
+      <c r="N14">
+        <v>2.2</v>
+      </c>
+      <c r="O14">
+        <v>1.57</v>
+      </c>
+      <c r="P14">
+        <v>1.47</v>
+      </c>
+      <c r="Q14">
+        <v>2.45</v>
+      </c>
+      <c r="R14">
         <v>1.98</v>
       </c>
-      <c r="S12">
-        <v>1.78</v>
-      </c>
-      <c r="T12">
-        <v>1.06</v>
-      </c>
-      <c r="U12">
-        <v>1.16</v>
-      </c>
-      <c r="V12">
-        <v>2.91</v>
-      </c>
-      <c r="W12">
-        <v>1.33</v>
-      </c>
-      <c r="X12">
-        <v>0.5</v>
-      </c>
-      <c r="Y12">
+      <c r="S14">
+        <v>1.72</v>
+      </c>
+      <c r="T14">
+        <v>1.42</v>
+      </c>
+      <c r="U14">
+        <v>1.32</v>
+      </c>
+      <c r="V14">
+        <v>1.51</v>
+      </c>
+      <c r="W14">
         <v>1.4</v>
       </c>
-      <c r="Z12">
-        <v>1.21</v>
-      </c>
-      <c r="AA12">
-        <v>2.61</v>
-      </c>
-      <c r="AB12">
-        <v>1.29</v>
-      </c>
-      <c r="AC12">
-        <v>10.25</v>
-      </c>
-      <c r="AD12">
-        <v>4.3</v>
-      </c>
-      <c r="AE12">
-        <v>1.28</v>
-      </c>
-      <c r="AF12">
+      <c r="X14">
+        <v>0.89</v>
+      </c>
+      <c r="Y14">
+        <v>1.56</v>
+      </c>
+      <c r="Z14">
+        <v>1.27</v>
+      </c>
+      <c r="AA14">
+        <v>2.83</v>
+      </c>
+      <c r="AB14">
+        <v>1.9</v>
+      </c>
+      <c r="AC14">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>2.21</v>
+      </c>
+      <c r="AE14">
+        <v>1.27</v>
+      </c>
+      <c r="AF14">
         <v>1.58</v>
       </c>
-      <c r="AG12">
-        <v>1.95</v>
-      </c>
-      <c r="AH12">
-        <v>2.44</v>
-      </c>
-      <c r="AI12">
+      <c r="AG14">
+        <v>1.94</v>
+      </c>
+      <c r="AH14">
+        <v>2.41</v>
+      </c>
+      <c r="AI14">
         <v>3.34</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-06-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -184,12 +184,12 @@
     <t>Banfield</t>
   </si>
   <si>
+    <t>Figueirense</t>
+  </si>
+  <si>
     <t>Paysandu</t>
   </si>
   <si>
-    <t>Figueirense</t>
-  </si>
-  <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>Alianza Petrolera</t>
   </si>
   <si>
+    <t>Instituto</t>
+  </si>
+  <si>
     <t>Vélez Sarsfield</t>
   </si>
   <si>
-    <t>Instituto</t>
-  </si>
-  <si>
     <t>Rentistas</t>
   </si>
   <si>
@@ -223,12 +223,12 @@
     <t>River Plate</t>
   </si>
   <si>
+    <t>Pouso Alegre</t>
+  </si>
+  <si>
     <t>São Bernardo</t>
   </si>
   <si>
-    <t>Pouso Alegre</t>
-  </si>
-  <si>
     <t>Puerto Montt</t>
   </si>
   <si>
@@ -241,10 +241,10 @@
     <t>Atlético Nacional</t>
   </si>
   <si>
+    <t>Racing Club</t>
+  </si>
+  <si>
     <t>Argentinos Juniors</t>
-  </si>
-  <si>
-    <t>Racing Club</t>
   </si>
 </sst>
 </file>
@@ -739,10 +739,10 @@
         <v>64</v>
       </c>
       <c r="G2">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I2">
         <v>1.9</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="O2">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="X2">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="Y2">
         <v>1.23</v>
@@ -894,7 +894,7 @@
         <v>1.83</v>
       </c>
       <c r="W3">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1060,13 +1060,13 @@
         <v>67</v>
       </c>
       <c r="G5">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="H5">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J5">
         <v>1.02</v>
@@ -1081,10 +1081,10 @@
         <v>3.4</v>
       </c>
       <c r="N5">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O5">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="P5">
         <v>1.38</v>
@@ -1274,13 +1274,13 @@
         <v>69</v>
       </c>
       <c r="G7">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I7">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J7">
         <v>1.08</v>
@@ -1295,70 +1295,70 @@
         <v>2.75</v>
       </c>
       <c r="N7">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="O7">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P7">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q7">
         <v>2.4</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="T7">
+        <v>1.14</v>
+      </c>
+      <c r="U7">
         <v>1.25</v>
       </c>
-      <c r="U7">
-        <v>1.3</v>
-      </c>
       <c r="V7">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="W7">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="X7">
+        <v>1.33</v>
+      </c>
+      <c r="Y7">
+        <v>1.45</v>
+      </c>
+      <c r="Z7">
+        <v>1.22</v>
+      </c>
+      <c r="AA7">
+        <v>2.67</v>
+      </c>
+      <c r="AB7">
+        <v>1.45</v>
+      </c>
+      <c r="AC7">
+        <v>9</v>
+      </c>
+      <c r="AD7">
+        <v>3.28</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1.29</v>
+      </c>
+      <c r="AG7">
         <v>1.5</v>
       </c>
-      <c r="Y7">
-        <v>1.18</v>
-      </c>
-      <c r="Z7">
-        <v>1.78</v>
-      </c>
-      <c r="AA7">
-        <v>2.96</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1381,13 +1381,13 @@
         <v>70</v>
       </c>
       <c r="G8">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="H8">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="J8">
         <v>1.08</v>
@@ -1408,64 +1408,64 @@
         <v>1.53</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q8">
         <v>2.4</v>
       </c>
       <c r="R8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="T8">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="U8">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="V8">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="W8">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="X8">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="Y8">
-        <v>1.45</v>
+        <v>1.18</v>
       </c>
       <c r="Z8">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="AA8">
-        <v>2.67</v>
+        <v>2.96</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AH8">
-        <v>1.83</v>
+        <v>2.6</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1488,13 +1488,13 @@
         <v>71</v>
       </c>
       <c r="G9">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H9">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I9">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>1.04</v>
@@ -1509,10 +1509,10 @@
         <v>2.75</v>
       </c>
       <c r="N9">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="P9">
         <v>1.46</v>
@@ -1595,13 +1595,13 @@
         <v>72</v>
       </c>
       <c r="G10">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="H10">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I10">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="J10">
         <v>1.04</v>
@@ -1616,10 +1616,10 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O10">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="P10">
         <v>1.33</v>
@@ -1702,10 +1702,10 @@
         <v>73</v>
       </c>
       <c r="G11">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H11">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11">
         <v>3.2</v>
@@ -1717,16 +1717,16 @@
         <v>7</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="N11">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="O11">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P11">
         <v>1.51</v>
@@ -1765,28 +1765,28 @@
         <v>3.01</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1809,13 +1809,13 @@
         <v>74</v>
       </c>
       <c r="G12">
-        <v>2.59</v>
+        <v>2.65</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I12">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J12">
         <v>1.04</v>
@@ -1830,10 +1830,10 @@
         <v>3.5</v>
       </c>
       <c r="N12">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="P12">
         <v>1.4</v>
@@ -1916,91 +1916,91 @@
         <v>75</v>
       </c>
       <c r="G13">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I13">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J13">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K13">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="L13">
+        <v>1.41</v>
+      </c>
+      <c r="M13">
+        <v>2.65</v>
+      </c>
+      <c r="N13">
+        <v>2.2</v>
+      </c>
+      <c r="O13">
+        <v>1.57</v>
+      </c>
+      <c r="P13">
+        <v>1.47</v>
+      </c>
+      <c r="Q13">
+        <v>2.45</v>
+      </c>
+      <c r="R13">
+        <v>1.98</v>
+      </c>
+      <c r="S13">
+        <v>1.72</v>
+      </c>
+      <c r="T13">
+        <v>1.42</v>
+      </c>
+      <c r="U13">
+        <v>1.32</v>
+      </c>
+      <c r="V13">
         <v>1.51</v>
       </c>
-      <c r="M13">
-        <v>2.37</v>
-      </c>
-      <c r="N13">
-        <v>2.5</v>
-      </c>
-      <c r="O13">
-        <v>1.46</v>
-      </c>
-      <c r="P13">
-        <v>1.55</v>
-      </c>
-      <c r="Q13">
-        <v>2.25</v>
-      </c>
-      <c r="R13">
-        <v>2.15</v>
-      </c>
-      <c r="S13">
-        <v>1.62</v>
-      </c>
-      <c r="T13">
-        <v>1.49</v>
-      </c>
-      <c r="U13">
-        <v>1.37</v>
-      </c>
-      <c r="V13">
-        <v>1.39</v>
-      </c>
       <c r="W13">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X13">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="Y13">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="Z13">
+        <v>1.27</v>
+      </c>
+      <c r="AA13">
+        <v>2.83</v>
+      </c>
+      <c r="AB13">
+        <v>1.9</v>
+      </c>
+      <c r="AC13">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD13">
+        <v>2.21</v>
+      </c>
+      <c r="AE13">
+        <v>1.27</v>
+      </c>
+      <c r="AF13">
         <v>1.58</v>
       </c>
-      <c r="AA13">
-        <v>2.9</v>
-      </c>
-      <c r="AB13">
-        <v>2.25</v>
-      </c>
-      <c r="AC13">
-        <v>8.5</v>
-      </c>
-      <c r="AD13">
-        <v>1.88</v>
-      </c>
-      <c r="AE13">
-        <v>1.32</v>
-      </c>
-      <c r="AF13">
-        <v>1.68</v>
-      </c>
       <c r="AG13">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="AH13">
-        <v>2.72</v>
+        <v>2.41</v>
       </c>
       <c r="AI13">
-        <v>3.74</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2023,91 +2023,91 @@
         <v>76</v>
       </c>
       <c r="G14">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="H14">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="J14">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K14">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="M14">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O14">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="P14">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="Q14">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="R14">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="S14">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="T14">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="U14">
+        <v>1.37</v>
+      </c>
+      <c r="V14">
+        <v>1.39</v>
+      </c>
+      <c r="W14">
+        <v>1.3</v>
+      </c>
+      <c r="X14">
+        <v>0.9</v>
+      </c>
+      <c r="Y14">
         <v>1.32</v>
       </c>
-      <c r="V14">
-        <v>1.51</v>
-      </c>
-      <c r="W14">
-        <v>1.4</v>
-      </c>
-      <c r="X14">
-        <v>0.89</v>
-      </c>
-      <c r="Y14">
-        <v>1.56</v>
-      </c>
       <c r="Z14">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="AA14">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="AB14">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AC14">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD14">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="AE14">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AF14">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AG14">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="AH14">
-        <v>2.41</v>
+        <v>2.72</v>
       </c>
       <c r="AI14">
-        <v>3.34</v>
+        <v>3.74</v>
       </c>
     </row>
   </sheetData>
